--- a/datos_resultados/resultados_busqueda.xlsx
+++ b/datos_resultados/resultados_busqueda.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1089,6 +1089,266 @@
       </c>
       <c r="F25" t="n">
         <v>4.092154</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>[(19, 1), (19, 2), (19, 3), (19, 4), (19, 5), (19, 6), (19, 7), (19, 8), (19, 9), (19, 10), (19, 11), (19, 12), (19, 13), (19, 14), (19, 15), (19, 16), (19, 17), (18, 18), (17, 19), (16, 20), (15, 20), (14, 19), (14, 18), (13, 17), (12, 16), (11, 15), (10, 14), (9, 13), (8, 12), (7, 11), (6, 11), (5, 12), (4, 13), (3, 14), (2, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[(19, 1), (18, 2), (19, 2), (18, 3), (19, 3), (18, 4), (19, 4), (18, 5), (19, 5), (18, 6), (19, 6), (18, 7), (19, 7), (18, 8), (19, 8), (18, 9), (19, 9), (18, 10), (19, 10), (18, 11), (19, 11), (18, 12), (19, 12), (18, 13), (19, 13), (18, 14), (19, 14), (19, 15), (19, 16), (19, 17), (18, 18), (19, 18), (18, 19), (19, 19), (18, 20), (19, 20), (20, 19), (20, 20), (20, 18), (20, 20), (20, 17), (20, 16), (20, 15), (20, 14), (17, 19), (17, 19), (20, 13), (17, 18), (17, 20), (17, 20), (20, 12), (20, 11), (17, 14), (20, 10), (18, 19), (18, 20), (17, 13), (20, 9), (17, 12), (20, 8), (18, 14), (17, 11), (18, 13), (20, 7), (17, 10), (18, 12), (20, 6), (18, 11), (17, 9), (20, 5), (18, 10), (17, 8), (20, 4), (18, 9), (20, 3), (17, 7), (18, 8), (20, 2), (17, 6), (18, 7), (17, 5), (18, 6), (17, 4), (18, 5), (16, 19), (16, 20), (15, 20), (14, 19), (14, 18), (15, 17), (14, 17), (15, 16), (14, 16), (15, 15), (14, 15), (15, 14), (14, 14), (15, 13), (14, 13), (15, 12), (14, 12), (15, 11), (14, 11), (15, 10), (14, 10), (15, 9), (14, 9), (15, 8), (14, 8), (15, 7), (14, 7), (15, 6), (14, 6), (15, 5), (14, 5), (13, 4), (13, 5), (13, 6), (13, 7), (13, 8), (13, 9), (13, 10), (13, 11), (13, 12), (13, 13), (13, 14), (13, 15), (13, 16), (13, 17), (13, 3), (14, 2), (15, 1), (14, 1), (15, 0), (14, 0), (13, 0), (15, 2), (12, 0), (13, 2), (13, 1), (12, 1), (12, 2), (13, 18), (13, 19), (12, 3), (12, 4), (12, 4), (12, 5), (12, 6), (12, 6), (11, 0), (12, 7), (11, 1), (12, 8), (12, 8), (11, 2), (11, 2), (12, 9), (11, 3), (11, 4), (10, 0), (12, 11), (11, 5), (10, 1), (12, 12), (12, 12), (11, 6), (10, 2), (12, 13), (11, 7), (9, 0), (12, 14), (12, 14), (12, 15), (11, 8), (10, 4), (9, 1), (12, 16), (12, 16), (12, 17), (10, 5), (12, 18), (10, 3), (9, 2), (8, 0), (9, 3), (10, 6), (8, 1), (9, 4), (10, 7), (8, 2), (8, 2), (7, 0), (11, 12), (9, 5), (7, 1), (8, 3), (11, 13), (9, 6), (6, 0), (7, 2), (8, 4), (11, 14), (11, 15), (7, 3), (8, 5), (11, 16), (6, 2), (6, 1), (5, 0), (7, 4), (5, 1), (4, 0), (4, 0), (6, 3), (5, 2), (4, 1), (3, 0), (10, 13), (10, 14), (10, 15), (9, 13), (9, 12), (8, 11), (9, 14), (7, 10), (7, 9), (8, 8), (9, 7), (8, 7), (8, 6), (7, 5), (6, 4), (5, 3), (7, 6), (6, 5), (6, 5), (9, 8), (5, 4), (6, 6), (5, 5), (7, 8), (7, 7), (6, 7), (5, 6), (4, 5), (4, 4), (3, 4), (2, 3), (2, 2), (3, 1), (2, 1), (2, 0), (1, 0), (0, 0), (1, 1), (0, 1), (1, 2), (0, 2), (1, 3), (2, 4), (6, 8), (3, 5), (5, 7), (4, 6), (8, 12), (6, 9), (5, 8), (5, 8), (4, 7), (3, 6), (2, 5), (1, 4), (0, 3), (0, 4), (1, 5), (8, 13), (7, 11), (7, 11), (2, 6), (6, 10), (3, 7), (4, 8), (5, 9), (7, 12), (6, 11), (5, 12), (4, 13), (3, 14), (2, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>294</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[(19, 2), (18, 2), (20, 2), (17, 3), (17, 2), (18, 3), (19, 3), (20, 3), (17, 4), (18, 4), (19, 4), (20, 4), (17, 5), (18, 5), (19, 5), (20, 5), (17, 6), (18, 6), (19, 6), (20, 6), (17, 7), (18, 7), (19, 7), (20, 7), (17, 8), (18, 8), (19, 8), (20, 8), (17, 9), (18, 9), (19, 9), (20, 9), (17, 10), (18, 10), (19, 10), (20, 10), (17, 11), (18, 11), (19, 11), (20, 11), (17, 12), (18, 12), (19, 12), (20, 12), (17, 13), (18, 13), (19, 13), (20, 13), (17, 14), (18, 14), (19, 14), (20, 14), (19, 15), (20, 15), (19, 16), (20, 16), (19, 17), (20, 17), (19, 18), (18, 18), (20, 18), (17, 19), (17, 18), (18, 19), (19, 19), (20, 19), (17, 20), (18, 20), (19, 20), (20, 20), (16, 20), (16, 19), (16, 18), (16, 14), (16, 13), (16, 12), (16, 11), (16, 10), (16, 9), (16, 8), (16, 7), (15, 19), (15, 18), (15, 20), (14, 20), (14, 19), (13, 18), (13, 19), (14, 18), (14, 17), (13, 17), (15, 17), (15, 16), (14, 16), (13, 16), (15, 15), (14, 15), (13, 15), (15, 14), (14, 14), (13, 14), (15, 13), (14, 13), (13, 13), (15, 12), (14, 12), (13, 12), (15, 11), (14, 11), (13, 11), (15, 10), (14, 10), (13, 10), (15, 9), (14, 9), (13, 9), (15, 8), (14, 8), (13, 8), (15, 7), (14, 7), (13, 7), (15, 6), (14, 6), (13, 6), (15, 5), (14, 5), (13, 5), (13, 4), (12, 3), (12, 4), (13, 3), (12, 5), (12, 6), (12, 7), (12, 8), (12, 9), (12, 11), (12, 12), (12, 13), (12, 14), (12, 15), (12, 16), (12, 17), (13, 2), (12, 2), (14, 2), (15, 1), (15, 2), (14, 1), (16, 0), (16, 1), (15, 0), (14, 0), (13, 0), (12, 0), (16, 2), (16, 3), (11, 0), (11, 1), (13, 1), (12, 1), (11, 2), (12, 18), (12, 19), (12, 20), (11, 3), (11, 4), (11, 5), (11, 6), (11, 7), (10, 0), (11, 8), (10, 1), (10, 2), (10, 3), (10, 4), (10, 5), (9, 0), (9, 1), (11, 12), (11, 13), (10, 6), (10, 7), (9, 2), (9, 3), (11, 14), (8, 0), (11, 15), (11, 16), (9, 4), (8, 1), (8, 2), (11, 17), (11, 18), (9, 5), (9, 6), (11, 19), (7, 0), (7, 1), (8, 3), (8, 4), (8, 5), (9, 7), (9, 8), (7, 2), (7, 3), (6, 0), (10, 13), (6, 1), (6, 2), (7, 4), (8, 6), (8, 7), (5, 0), (5, 1), (6, 3), (10, 14), (10, 15), (7, 5), (7, 6), (10, 16), (10, 17), (5, 2), (4, 0), (6, 4), (6, 5), (4, 1), (3, 0), (3, 1), (5, 3), (5, 4), (2, 0), (2, 1), (9, 13), (9, 12), (9, 14), (9, 15), (9, 16), (8, 12), (8, 13), (8, 11), (7, 10), (7, 11), (8, 14), (8, 15), (6, 9), (6, 10), (7, 9), (7, 8), (6, 8), (8, 8), (6, 6), (5, 5), (5, 6), (4, 4), (4, 5), (5, 7), (4, 6), (7, 7), (6, 7), (3, 4), (3, 5), (2, 3), (2, 4), (1, 2), (1, 3), (2, 2), (1, 1), (1, 0), (0, 0), (0, 1), (0, 2), (0, 3), (0, 4), (1, 4), (1, 5), (5, 8), (2, 5), (2, 6), (4, 7), (4, 8), (3, 6), (3, 7), (7, 12), (5, 9), (4, 9), (0, 5), (0, 6), (7, 13), (7, 14), (6, 11), (6, 12), (1, 6), (1, 7), (5, 10), (5, 11), (2, 7), (2, 8), (3, 8), (3, 9), (4, 10), (6, 13), (5, 12), (4, 13), (4, 12), (3, 14), (3, 13), (4, 14), (2, 15), (2, 14), (3, 15), (1, 16), (1, 15), (2, 16), (0, 17), (0, 16), (1, 17), (1, 18), (0, 18), (2, 18), (1, 19), (0, 19), (2, 19)]</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>324</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.719526</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>[(19, 1), (19, 2), (19, 3), (19, 4), (19, 5), (19, 6), (19, 7), (19, 8), (19, 9), (19, 10), (19, 11), (19, 12), (19, 13), (19, 14), (19, 15), (19, 16), (19, 17), (18, 18), (17, 19), (16, 20), (15, 20), (14, 19), (14, 18), (13, 17), (12, 16), (11, 15), (10, 14), (9, 13), (8, 12), (7, 11), (6, 11), (5, 12), (4, 13), (3, 14), (2, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[(19, 1), (18, 2), (19, 2), (18, 3), (19, 3), (18, 4), (19, 4), (18, 5), (19, 5), (18, 6), (19, 6), (18, 7), (19, 7), (18, 8), (19, 8), (18, 9), (19, 9), (18, 10), (19, 10), (18, 11), (19, 11), (18, 12), (19, 12), (18, 13), (19, 13), (18, 14), (19, 14), (19, 15), (19, 16), (19, 17), (18, 18), (19, 18), (18, 19), (19, 19), (18, 20), (19, 20), (20, 19), (20, 20), (20, 18), (20, 20), (20, 17), (20, 16), (20, 15), (20, 14), (17, 19), (17, 19), (20, 13), (17, 18), (17, 20), (17, 20), (20, 12), (20, 11), (17, 14), (20, 10), (18, 19), (18, 20), (17, 13), (20, 9), (17, 12), (20, 8), (18, 14), (17, 11), (18, 13), (20, 7), (17, 10), (18, 12), (20, 6), (18, 11), (17, 9), (20, 5), (18, 10), (17, 8), (20, 4), (18, 9), (20, 3), (17, 7), (18, 8), (20, 2), (17, 6), (18, 7), (17, 5), (18, 6), (17, 4), (18, 5), (16, 19), (16, 20), (15, 20), (14, 19), (14, 18), (15, 17), (14, 17), (15, 16), (14, 16), (15, 15), (14, 15), (15, 14), (14, 14), (15, 13), (14, 13), (15, 12), (14, 12), (15, 11), (14, 11), (15, 10), (14, 10), (15, 9), (14, 9), (15, 8), (14, 8), (15, 7), (14, 7), (15, 6), (14, 6), (15, 5), (14, 5), (13, 4), (13, 5), (13, 6), (13, 7), (13, 8), (13, 9), (13, 10), (13, 11), (13, 12), (13, 13), (13, 14), (13, 15), (13, 16), (13, 17), (13, 3), (14, 2), (15, 1), (14, 1), (15, 0), (14, 0), (13, 0), (15, 2), (12, 0), (13, 2), (13, 1), (12, 1), (12, 2), (13, 18), (13, 19), (12, 3), (12, 4), (12, 4), (12, 5), (12, 6), (12, 6), (11, 0), (12, 7), (11, 1), (12, 8), (12, 8), (11, 2), (11, 2), (12, 9), (11, 3), (11, 4), (10, 0), (12, 11), (11, 5), (10, 1), (12, 12), (12, 12), (11, 6), (10, 2), (12, 13), (11, 7), (9, 0), (12, 14), (12, 14), (12, 15), (11, 8), (10, 4), (9, 1), (12, 16), (12, 16), (12, 17), (10, 5), (12, 18), (10, 3), (9, 2), (8, 0), (9, 3), (10, 6), (8, 1), (9, 4), (10, 7), (8, 2), (8, 2), (7, 0), (11, 12), (9, 5), (7, 1), (8, 3), (11, 13), (9, 6), (6, 0), (7, 2), (8, 4), (11, 14), (11, 15), (7, 3), (8, 5), (11, 16), (6, 2), (6, 1), (5, 0), (7, 4), (5, 1), (4, 0), (4, 0), (6, 3), (5, 2), (4, 1), (3, 0), (10, 13), (10, 14), (10, 15), (9, 13), (9, 12), (8, 11), (9, 14), (7, 10), (7, 9), (8, 8), (9, 7), (8, 7), (8, 6), (7, 5), (6, 4), (5, 3), (7, 6), (6, 5), (6, 5), (9, 8), (5, 4), (6, 6), (5, 5), (7, 8), (7, 7), (6, 7), (5, 6), (4, 5), (4, 4), (3, 4), (2, 3), (2, 2), (3, 1), (2, 1), (2, 0), (1, 0), (0, 0), (1, 1), (0, 1), (1, 2), (0, 2), (1, 3), (2, 4), (6, 8), (3, 5), (5, 7), (4, 6), (8, 12), (6, 9), (5, 8), (5, 8), (4, 7), (3, 6), (2, 5), (1, 4), (0, 3), (0, 4), (1, 5), (8, 13), (7, 11), (7, 11), (2, 6), (6, 10), (3, 7), (4, 8), (5, 9), (7, 12), (6, 11), (5, 12), (4, 13), (3, 14), (2, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>294</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[(19, 2), (18, 2), (20, 2), (17, 3), (17, 2), (18, 3), (19, 3), (20, 3), (17, 4), (18, 4), (19, 4), (20, 4), (17, 5), (18, 5), (19, 5), (20, 5), (17, 6), (18, 6), (19, 6), (20, 6), (17, 7), (18, 7), (19, 7), (20, 7), (17, 8), (18, 8), (19, 8), (20, 8), (17, 9), (18, 9), (19, 9), (20, 9), (17, 10), (18, 10), (19, 10), (20, 10), (17, 11), (18, 11), (19, 11), (20, 11), (17, 12), (18, 12), (19, 12), (20, 12), (17, 13), (18, 13), (19, 13), (20, 13), (17, 14), (18, 14), (19, 14), (20, 14), (19, 15), (20, 15), (19, 16), (20, 16), (19, 17), (20, 17), (19, 18), (18, 18), (20, 18), (17, 19), (17, 18), (18, 19), (19, 19), (20, 19), (17, 20), (18, 20), (19, 20), (20, 20), (16, 20), (16, 19), (16, 18), (16, 14), (16, 13), (16, 12), (16, 11), (16, 10), (16, 9), (16, 8), (16, 7), (15, 19), (15, 18), (15, 20), (14, 20), (14, 19), (13, 18), (13, 19), (14, 18), (14, 17), (13, 17), (15, 17), (15, 16), (14, 16), (13, 16), (15, 15), (14, 15), (13, 15), (15, 14), (14, 14), (13, 14), (15, 13), (14, 13), (13, 13), (15, 12), (14, 12), (13, 12), (15, 11), (14, 11), (13, 11), (15, 10), (14, 10), (13, 10), (15, 9), (14, 9), (13, 9), (15, 8), (14, 8), (13, 8), (15, 7), (14, 7), (13, 7), (15, 6), (14, 6), (13, 6), (15, 5), (14, 5), (13, 5), (13, 4), (12, 3), (12, 4), (13, 3), (12, 5), (12, 6), (12, 7), (12, 8), (12, 9), (12, 11), (12, 12), (12, 13), (12, 14), (12, 15), (12, 16), (12, 17), (13, 2), (12, 2), (14, 2), (15, 1), (15, 2), (14, 1), (16, 0), (16, 1), (15, 0), (14, 0), (13, 0), (12, 0), (16, 2), (16, 3), (11, 0), (11, 1), (13, 1), (12, 1), (11, 2), (12, 18), (12, 19), (12, 20), (11, 3), (11, 4), (11, 5), (11, 6), (11, 7), (10, 0), (11, 8), (10, 1), (10, 2), (10, 3), (10, 4), (10, 5), (9, 0), (9, 1), (11, 12), (11, 13), (10, 6), (10, 7), (9, 2), (9, 3), (11, 14), (8, 0), (11, 15), (11, 16), (9, 4), (8, 1), (8, 2), (11, 17), (11, 18), (9, 5), (9, 6), (11, 19), (7, 0), (7, 1), (8, 3), (8, 4), (8, 5), (9, 7), (9, 8), (7, 2), (7, 3), (6, 0), (10, 13), (6, 1), (6, 2), (7, 4), (8, 6), (8, 7), (5, 0), (5, 1), (6, 3), (10, 14), (10, 15), (7, 5), (7, 6), (10, 16), (10, 17), (5, 2), (4, 0), (6, 4), (6, 5), (4, 1), (3, 0), (3, 1), (5, 3), (5, 4), (2, 0), (2, 1), (9, 13), (9, 12), (9, 14), (9, 15), (9, 16), (8, 12), (8, 13), (8, 11), (7, 10), (7, 11), (8, 14), (8, 15), (6, 9), (6, 10), (7, 9), (7, 8), (6, 8), (8, 8), (6, 6), (5, 5), (5, 6), (4, 4), (4, 5), (5, 7), (4, 6), (7, 7), (6, 7), (3, 4), (3, 5), (2, 3), (2, 4), (1, 2), (1, 3), (2, 2), (1, 1), (1, 0), (0, 0), (0, 1), (0, 2), (0, 3), (0, 4), (1, 4), (1, 5), (5, 8), (2, 5), (2, 6), (4, 7), (4, 8), (3, 6), (3, 7), (7, 12), (5, 9), (4, 9), (0, 5), (0, 6), (7, 13), (7, 14), (6, 11), (6, 12), (1, 6), (1, 7), (5, 10), (5, 11), (2, 7), (2, 8), (3, 8), (3, 9), (4, 10), (6, 13), (5, 12), (4, 13), (4, 12), (3, 14), (3, 13), (4, 14), (2, 15), (2, 14), (3, 15), (1, 16), (1, 15), (2, 16), (0, 17), (0, 16), (1, 17), (1, 18), (0, 18), (2, 18), (1, 19), (0, 19), (2, 19)]</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>324</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.895001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>[(19, 1), (18, 2), (17, 3), (16, 3), (15, 3), (14, 3), (13, 4), (12, 5), (11, 6), (10, 7), (9, 8), (8, 9), (7, 10), (6, 11), (5, 12), (4, 13), (3, 14), (2, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[(19, 1), (18, 2), (17, 3), (16, 3), (15, 3), (14, 3), (13, 4), (12, 5), (11, 6), (10, 7), (9, 8), (8, 9), (7, 10), (6, 11), (5, 12), (4, 13), (3, 14), (2, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>22</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[(18, 1), (18, 0), (18, 2), (17, 3), (17, 2), (18, 3), (16, 3), (17, 4), (15, 3), (15, 2), (14, 3), (14, 2), (13, 3), (13, 2), (13, 4), (12, 5), (12, 4), (13, 5), (11, 6), (11, 5), (12, 6), (10, 7), (10, 6), (11, 7), (9, 8), (9, 7), (8, 9), (8, 8), (7, 10), (7, 9), (6, 11), (6, 10), (7, 11), (5, 12), (5, 11), (6, 12), (4, 13), (4, 12), (3, 14), (3, 13), (4, 14), (2, 15), (2, 14), (3, 15), (1, 16), (1, 15), (2, 16), (0, 17), (0, 16), (1, 17), (1, 18), (0, 18), (2, 18), (1, 19), (0, 19), (2, 19)]</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>56</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.200624</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>[(19, 1), (18, 2), (17, 3), (16, 3), (15, 3), (14, 3), (13, 4), (12, 5), (11, 6), (10, 7), (9, 8), (8, 9), (7, 10), (6, 11), (5, 12), (4, 13), (3, 14), (2, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[(19, 1), (18, 2), (17, 3), (16, 3), (15, 3), (14, 3), (13, 4), (12, 5), (11, 6), (10, 7), (9, 8), (8, 9), (7, 10), (6, 11), (5, 12), (4, 13), (3, 14), (2, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>22</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[(18, 1), (18, 0), (18, 2), (17, 3), (17, 2), (18, 3), (16, 3), (17, 4), (15, 3), (15, 2), (14, 3), (14, 2), (13, 3), (13, 2), (13, 4), (12, 5), (12, 4), (13, 5), (11, 6), (11, 5), (12, 6), (10, 7), (10, 6), (11, 7), (9, 8), (9, 7), (8, 9), (8, 8), (7, 10), (7, 9), (6, 11), (6, 10), (7, 11), (5, 12), (5, 11), (6, 12), (4, 13), (4, 12), (3, 14), (3, 13), (4, 14), (2, 15), (2, 14), (3, 15), (1, 16), (1, 15), (2, 16), (0, 17), (0, 16), (1, 17), (1, 18), (0, 18), (2, 18), (1, 19), (0, 19), (2, 19)]</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>56</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.151537</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>[(19, 1), (18, 2), (17, 3), (16, 3), (15, 3), (14, 3), (13, 4), (12, 5), (11, 6), (10, 7), (9, 8), (8, 9), (7, 10), (6, 11), (5, 12), (4, 13), (3, 14), (2, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[(19, 1), (18, 2), (17, 3), (16, 3), (15, 3), (14, 3), (13, 4), (12, 5), (11, 6), (10, 7), (9, 8), (8, 9), (7, 10), (6, 11), (5, 12), (4, 13), (3, 14), (2, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>22</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[(18, 1), (18, 0), (18, 2), (17, 3), (17, 2), (18, 3), (16, 3), (17, 4), (15, 3), (15, 2), (14, 3), (14, 2), (13, 3), (13, 2), (13, 4), (12, 5), (12, 4), (13, 5), (11, 6), (11, 5), (12, 6), (10, 7), (10, 6), (11, 7), (9, 8), (9, 7), (8, 9), (8, 8), (7, 10), (7, 9), (6, 11), (6, 10), (7, 11), (5, 12), (5, 11), (6, 12), (4, 13), (4, 12), (3, 14), (3, 13), (4, 14), (2, 15), (2, 14), (3, 15), (1, 16), (1, 15), (2, 16), (0, 17), (0, 16), (1, 17), (1, 18), (0, 18), (2, 18), (1, 19), (0, 19), (2, 19)]</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>56</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.133142</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>[(19, 1), (18, 2), (17, 3), (16, 3), (15, 3), (14, 3), (13, 4), (12, 5), (11, 6), (10, 7), (9, 8), (8, 9), (7, 10), (6, 11), (5, 12), (4, 13), (3, 14), (2, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[(19, 1), (18, 2), (17, 3), (16, 3), (15, 3), (14, 3), (13, 4), (12, 5), (11, 6), (10, 7), (9, 8), (8, 9), (7, 10), (6, 11), (5, 12), (4, 13), (3, 14), (2, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>22</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[(18, 1), (18, 0), (18, 2), (17, 3), (17, 2), (18, 3), (16, 3), (17, 4), (15, 3), (15, 2), (14, 3), (14, 2), (13, 3), (13, 2), (13, 4), (12, 5), (12, 4), (13, 5), (11, 6), (11, 5), (12, 6), (10, 7), (10, 6), (11, 7), (9, 8), (9, 7), (8, 9), (8, 8), (7, 10), (7, 9), (6, 11), (6, 10), (7, 11), (5, 12), (5, 11), (6, 12), (4, 13), (4, 12), (3, 14), (3, 13), (4, 14), (2, 15), (2, 14), (3, 15), (1, 16), (1, 15), (2, 16), (0, 17), (0, 16), (1, 17), (1, 18), (0, 18), (2, 18), (1, 19), (0, 19), (2, 19)]</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>56</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.183006</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>[(19, 1), (18, 2), (17, 2), (16, 2), (15, 2), (14, 2), (13, 2), (12, 3), (11, 4), (10, 5), (9, 6), (8, 7), (7, 8), (6, 9), (5, 10), (4, 11), (3, 12), (2, 13), (1, 14), (1, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[(19, 1), (18, 2), (17, 2), (16, 2), (15, 2), (14, 2), (13, 2), (12, 3), (11, 4), (10, 5), (9, 6), (8, 7), (7, 8), (6, 9), (5, 10), (4, 11), (3, 12), (2, 13), (1, 14), (1, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>24</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>[(18, 1), (18, 0), (18, 2), (17, 2), (18, 3), (16, 2), (16, 1), (15, 2), (15, 1), (14, 2), (14, 1), (13, 2), (13, 1), (12, 2), (12, 1), (12, 3), (11, 4), (11, 3), (12, 4), (10, 5), (10, 4), (11, 5), (9, 6), (9, 5), (10, 6), (8, 7), (8, 6), (7, 8), (7, 7), (6, 9), (6, 8), (5, 10), (5, 9), (6, 10), (4, 11), (4, 10), (5, 11), (3, 12), (3, 11), (2, 13), (2, 12), (3, 13), (1, 14), (1, 13), (2, 14), (0, 15), (0, 14), (1, 15), (1, 16), (0, 16), (2, 16), (1, 17), (0, 17), (2, 17), (1, 18), (0, 18), (2, 18), (1, 19), (0, 19), (2, 19)]</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>60</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.423052</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>[(19, 1), (18, 2), (17, 2), (16, 2), (15, 2), (14, 2), (13, 2), (12, 3), (11, 4), (10, 5), (9, 6), (8, 7), (7, 8), (6, 9), (5, 10), (4, 11), (3, 12), (2, 13), (1, 14), (1, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[(19, 1), (18, 2), (17, 2), (16, 2), (15, 2), (14, 2), (13, 2), (12, 3), (11, 4), (10, 5), (9, 6), (8, 7), (7, 8), (6, 9), (5, 10), (4, 11), (3, 12), (2, 13), (1, 14), (1, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>24</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>[(18, 1), (18, 0), (18, 2), (17, 2), (18, 3), (16, 2), (16, 1), (15, 2), (15, 1), (14, 2), (14, 1), (13, 2), (13, 1), (12, 2), (12, 1), (12, 3), (11, 4), (11, 3), (12, 4), (10, 5), (10, 4), (11, 5), (9, 6), (9, 5), (10, 6), (8, 7), (8, 6), (7, 8), (7, 7), (6, 9), (6, 8), (5, 10), (5, 9), (6, 10), (4, 11), (4, 10), (5, 11), (3, 12), (3, 11), (2, 13), (2, 12), (3, 13), (1, 14), (1, 13), (2, 14), (0, 15), (0, 14), (1, 15), (1, 16), (0, 16), (2, 16), (1, 17), (0, 17), (2, 17), (1, 18), (0, 18), (2, 18), (1, 19), (0, 19), (2, 19)]</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>60</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.331967</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>[(19, 1), (18, 2), (17, 2), (16, 2), (15, 2), (14, 2), (13, 2), (12, 3), (11, 4), (10, 5), (9, 6), (8, 7), (7, 8), (6, 9), (5, 10), (4, 11), (3, 12), (2, 13), (1, 14), (1, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[(19, 1), (18, 2), (17, 2), (16, 2), (15, 2), (14, 2), (13, 2), (12, 3), (11, 4), (10, 5), (9, 6), (8, 7), (7, 8), (6, 9), (5, 10), (4, 11), (3, 12), (2, 13), (1, 14), (1, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>24</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>[(18, 1), (18, 0), (18, 2), (17, 2), (18, 3), (16, 2), (16, 1), (15, 2), (15, 1), (14, 2), (14, 1), (13, 2), (13, 1), (12, 2), (12, 1), (12, 3), (11, 4), (11, 3), (12, 4), (10, 5), (10, 4), (11, 5), (9, 6), (9, 5), (10, 6), (8, 7), (8, 6), (7, 8), (7, 7), (6, 9), (6, 8), (5, 10), (5, 9), (6, 10), (4, 11), (4, 10), (5, 11), (3, 12), (3, 11), (2, 13), (2, 12), (3, 13), (1, 14), (1, 13), (2, 14), (0, 15), (0, 14), (1, 15), (1, 16), (0, 16), (2, 16), (1, 17), (0, 17), (2, 17), (1, 18), (0, 18), (2, 18), (1, 19), (0, 19), (2, 19)]</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>60</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.446017</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>[(19, 1), (18, 2), (17, 2), (16, 2), (15, 2), (14, 2), (13, 2), (12, 3), (11, 4), (10, 5), (9, 6), (8, 7), (7, 8), (6, 9), (5, 10), (4, 11), (3, 12), (2, 13), (1, 14), (1, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[(19, 1), (18, 2), (17, 2), (16, 2), (15, 2), (14, 2), (13, 2), (12, 3), (11, 4), (10, 5), (9, 6), (8, 7), (7, 8), (6, 9), (5, 10), (4, 11), (3, 12), (2, 13), (1, 14), (1, 15), (1, 16), (1, 17), (1, 18), (1, 19)]</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>24</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[(18, 1), (18, 0), (18, 2), (17, 2), (18, 3), (16, 2), (16, 1), (15, 2), (15, 1), (14, 2), (14, 1), (13, 2), (13, 1), (12, 2), (12, 1), (12, 3), (11, 4), (11, 3), (12, 4), (10, 5), (10, 4), (11, 5), (9, 6), (9, 5), (10, 6), (8, 7), (8, 6), (7, 8), (7, 7), (6, 9), (6, 8), (5, 10), (5, 9), (6, 10), (4, 11), (4, 10), (5, 11), (3, 12), (3, 11), (2, 13), (2, 12), (3, 13), (1, 14), (1, 13), (2, 14), (0, 15), (0, 14), (1, 15), (1, 16), (0, 16), (2, 16), (1, 17), (0, 17), (2, 17), (1, 18), (0, 18), (2, 18), (1, 19), (0, 19), (2, 19)]</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>60</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.24405</v>
       </c>
     </row>
   </sheetData>
